--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R任务列表_Quests_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R任务列表_Quests_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED22195-413A-4F0A-A903-BF87D82BEAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721941E6-E6D1-4944-8B80-24AED2E82E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,9 +666,6 @@
     <t>CLUE#[%tagrole:id%][=]霍驹|[%tagrole:id%][=]风颖#[[yellow:关于测试任务]]#通用村落招募冷却中</t>
   </si>
   <si>
-    <t>CLUE#[%tagrole:id%][=]霍驹|[%tagrole:id%][=]风颖#[[yellow:About Test Quest]]#通用村落招募冷却中</t>
-  </si>
-  <si>
     <t>0#测试追踪项1#1##沙盒红石城:450,3000:1000|红石城魔狼猎人
 0#测试追踪项2#1##沙盒红石城:1000,500:0|红石城魔狼猎人</t>
   </si>
@@ -1093,6 +1090,9 @@
   </si>
   <si>
     <t>任务ID_QuestID</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]霍驹|[%tagrole:id%][=]风颖#[[yellow:Sobre a missão de teste]]#通用村落招募冷却中</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1633,7 +1635,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="67.5">
       <c r="A1" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -1668,20 +1670,20 @@
         <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108">
@@ -1692,20 +1694,20 @@
         <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="67.5">
@@ -1716,20 +1718,20 @@
         <v>17</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="67.5">
@@ -1740,20 +1742,20 @@
         <v>21</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="94.5">
@@ -1764,20 +1766,20 @@
         <v>25</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="67.5">
@@ -1788,20 +1790,20 @@
         <v>29</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="94.5">
@@ -1812,20 +1814,20 @@
         <v>33</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="135">
@@ -1836,20 +1838,20 @@
         <v>33</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="94.5">
@@ -1860,20 +1862,20 @@
         <v>40</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="108">
@@ -1884,20 +1886,20 @@
         <v>40</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="189">
@@ -1908,20 +1910,20 @@
         <v>47</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>49</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="189">
@@ -1932,20 +1934,20 @@
         <v>51</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="121.5">
@@ -1956,20 +1958,20 @@
         <v>55</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D14" s="4"/>
       <c r="F14" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>57</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="202.5">
@@ -1980,20 +1982,20 @@
         <v>59</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D15" s="4"/>
       <c r="F15" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>61</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="324">
@@ -2004,20 +2006,20 @@
         <v>63</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" s="4"/>
       <c r="F16" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="243">
@@ -2028,20 +2030,20 @@
         <v>67</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D17" s="4"/>
       <c r="F17" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="121.5">
@@ -2052,20 +2054,20 @@
         <v>70</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D18" s="3"/>
       <c r="F18" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>65</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="121.5">
@@ -2076,20 +2078,20 @@
         <v>73</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D19" s="3"/>
       <c r="F19" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>65</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="121.5">
@@ -2100,20 +2102,20 @@
         <v>76</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D20" s="3"/>
       <c r="F20" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>65</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="189">
@@ -2124,20 +2126,20 @@
         <v>79</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D21" s="3"/>
       <c r="F21" s="3" t="s">
         <v>80</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>81</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="324">
@@ -2148,20 +2150,20 @@
         <v>83</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D22" s="3"/>
       <c r="F22" s="3" t="s">
         <v>84</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>85</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="121.5">
@@ -2172,20 +2174,20 @@
         <v>87</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" s="3"/>
       <c r="F23" s="3" t="s">
         <v>88</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>89</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="148.5">
@@ -2196,20 +2198,20 @@
         <v>91</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D24" s="3"/>
       <c r="F24" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>93</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="243">
@@ -2220,20 +2222,20 @@
         <v>95</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D25" s="3"/>
       <c r="F25" s="3" t="s">
         <v>96</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>97</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="189">
@@ -2244,20 +2246,20 @@
         <v>99</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D26" s="3"/>
       <c r="F26" s="3" t="s">
         <v>100</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>101</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="270">
@@ -2268,20 +2270,20 @@
         <v>103</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D27" s="4"/>
       <c r="F27" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>105</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="108">
@@ -2292,20 +2294,20 @@
         <v>107</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D28" s="5"/>
       <c r="F28" s="5" t="s">
         <v>108</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>109</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="175.5">
@@ -2316,20 +2318,20 @@
         <v>111</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D29" s="5"/>
       <c r="F29" s="5" t="s">
         <v>112</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>113</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="162">
@@ -2340,20 +2342,20 @@
         <v>111</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D30" s="5"/>
       <c r="F30" s="5" t="s">
         <v>115</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>116</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="162">
@@ -2364,20 +2366,20 @@
         <v>111</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D31" s="5"/>
       <c r="F31" s="5" t="s">
         <v>118</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>119</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="243">
@@ -2388,20 +2390,20 @@
         <v>111</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D32" s="5"/>
       <c r="F32" s="5" t="s">
         <v>121</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>122</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="162">
@@ -2412,20 +2414,20 @@
         <v>111</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D33" s="5"/>
       <c r="F33" s="5" t="s">
         <v>124</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>125</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="216">
@@ -2436,20 +2438,20 @@
         <v>127</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D34" s="3"/>
       <c r="F34" s="3" t="s">
         <v>128</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>129</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="121.5">
@@ -2460,20 +2462,20 @@
         <v>131</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D35" s="3"/>
       <c r="F35" s="3" t="s">
         <v>132</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>65</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="229.5">
@@ -2484,20 +2486,20 @@
         <v>134</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D36" s="3"/>
       <c r="F36" s="3" t="s">
         <v>135</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>136</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="216">
@@ -2508,20 +2510,20 @@
         <v>138</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D37" s="3"/>
       <c r="F37" s="3" t="s">
         <v>139</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>140</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="216">
@@ -2532,20 +2534,20 @@
         <v>142</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D38" s="3"/>
       <c r="F38" s="3" t="s">
         <v>143</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>144</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="175.5">
@@ -2556,19 +2558,19 @@
         <v>146</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>147</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>148</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="216">
@@ -2579,19 +2581,19 @@
         <v>150</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>152</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="202.5">
@@ -2602,19 +2604,19 @@
         <v>154</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>155</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>156</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="108">
@@ -2631,13 +2633,13 @@
         <v>160</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="108">
@@ -2654,13 +2656,13 @@
         <v>165</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>166</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="121.5">
@@ -2671,20 +2673,20 @@
         <v>168</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D44" s="6"/>
       <c r="F44" s="6" t="s">
         <v>169</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>170</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="81">
@@ -2695,20 +2697,20 @@
         <v>168</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D45" s="6"/>
       <c r="F45" s="6" t="s">
         <v>172</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>173</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="121.5">
@@ -2719,20 +2721,20 @@
         <v>175</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D46" s="6"/>
       <c r="F46" s="6" t="s">
         <v>176</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>177</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="94.5">
@@ -2743,20 +2745,20 @@
         <v>175</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D47" s="6"/>
       <c r="F47" s="6" t="s">
         <v>179</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>173</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="121.5">
@@ -2767,20 +2769,20 @@
         <v>181</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D48" s="6"/>
       <c r="F48" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="94.5">
@@ -2791,20 +2793,20 @@
         <v>181</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D49" s="6"/>
       <c r="F49" s="6" t="s">
         <v>185</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>173</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="67.5">
@@ -2815,20 +2817,20 @@
         <v>187</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D50" s="6"/>
       <c r="F50" s="6" t="s">
         <v>188</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>189</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="81">
@@ -2839,20 +2841,20 @@
         <v>191</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D51" s="6"/>
       <c r="F51" s="6" t="s">
         <v>192</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>189</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="81">
@@ -2863,20 +2865,20 @@
         <v>194</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D52" s="6"/>
       <c r="F52" s="6" t="s">
         <v>195</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>189</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="243">
@@ -2887,25 +2889,25 @@
         <v>197</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>198</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>199</v>
+        <v>338</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
